--- a/biology/Biologie cellulaire et moléculaire/MRC-5/MRC-5.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/MRC-5/MRC-5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les MRC-5 sont une lignée de cellules de type fibroblastes embryonnaires humains obtenue à partir d'un unique fœtus avorté en 1966 [1]. Elles sont utilisées pour réaliser des cultures de virus (par exemple le Cytomégalovirus), à des fins de diagnostic, de recherche ou pour produire des vaccins comme celui contre l'hépatite A[2]. Le fait que ces cellules descendent de cellules de fœtus avortés entraîne une controverse sur la vaccination[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les MRC-5 sont une lignée de cellules de type fibroblastes embryonnaires humains obtenue à partir d'un unique fœtus avorté en 1966 . Elles sont utilisées pour réaliser des cultures de virus (par exemple le Cytomégalovirus), à des fins de diagnostic, de recherche ou pour produire des vaccins comme celui contre l'hépatite A. Le fait que ces cellules descendent de cellules de fœtus avortés entraîne une controverse sur la vaccination.
 </t>
         </is>
       </c>
